--- a/HybridDeployOptimizer/doc/interface/재배포 시나리오 인터페이스_규격_KETI.xlsx
+++ b/HybridDeployOptimizer/doc/interface/재배포 시나리오 인터페이스_규격_KETI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C4F19-BC62-4085-941A-24EC72B5BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0B0F5-006A-4824-A6AC-BB9B01173CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36810" yWindow="3165" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="84075" yWindow="3255" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
